--- a/working/moran/prop.male.xlsx
+++ b/working/moran/prop.male.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/working/moran/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27069579-2026-B94F-BABE-A1C04CE4E80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21365A0-71BE-E54D-BB5C-CD78CA80658F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="500" windowWidth="23220" windowHeight="14280" xr2:uid="{591675C9-33BA-2F4A-8AB9-F20DE2BC08B9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>cross</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>rF1</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,6 +464,9 @@
       <c r="C2">
         <v>4.3956043956043953E-2</v>
       </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
       <c r="E2">
         <v>1</v>
       </c>
@@ -481,6 +487,9 @@
       <c r="C3">
         <v>0.12087912087912088</v>
       </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
       <c r="E3">
         <v>1</v>
       </c>
@@ -501,6 +510,9 @@
       <c r="C4">
         <v>0.10302197802197802</v>
       </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
       <c r="E4">
         <v>1</v>
       </c>
@@ -520,6 +532,9 @@
       </c>
       <c r="C5">
         <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
       </c>
       <c r="E5">
         <v>1</v>
